--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value341.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value341.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.185623392502083</v>
+        <v>0.7830654382705688</v>
       </c>
       <c r="B1">
-        <v>3.772501785839595</v>
+        <v>1.470719695091248</v>
       </c>
       <c r="C1">
-        <v>3.146090665313853</v>
+        <v>5.644104957580566</v>
       </c>
       <c r="D1">
-        <v>1.167537812657421</v>
+        <v>3.154501914978027</v>
       </c>
       <c r="E1">
-        <v>0.8149205032426092</v>
+        <v>1.487643957138062</v>
       </c>
     </row>
   </sheetData>
